--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>哈尔滨至北京火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件及制版费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -606,7 +614,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F21" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F22" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -920,6 +928,24 @@
       <c r="F21">
         <f t="shared" si="0"/>
         <v>496632.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20180110</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>2747</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>493885.52</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -614,7 +618,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F23" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -946,6 +950,24 @@
       <c r="F22">
         <f t="shared" si="0"/>
         <v>493885.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20180114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>182.2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>493703.32</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,26 @@
   </si>
   <si>
     <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨往返北京车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉庭两夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -618,7 +638,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F23" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F26" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -963,11 +983,75 @@
         <v>38</v>
       </c>
       <c r="E23">
-        <v>182.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>493703.32</v>
+        <v>493757.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>20180120</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>850</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>492907.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>20180120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>644</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>492263.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20180120</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>491763.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31">
+        <f>SUM(D3:D30)</f>
+        <v>500029.82</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E3:E29)</f>
+        <v>8266.5</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>购买元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买飞凌开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +577,7 @@
   <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -638,7 +646,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F26" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F27" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1042,6 +1050,24 @@
       <c r="F26">
         <f t="shared" si="0"/>
         <v>491763.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>20180122</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>1104</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>490659.32</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1051,7 +1077,7 @@
       </c>
       <c r="E31">
         <f>SUM(E3:E29)</f>
-        <v>8266.5</v>
+        <v>9370.5</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买电源和下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -646,7 +654,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F27" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F28" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1070,14 +1078,41 @@
         <v>490659.32</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="D31">
-        <f>SUM(D3:D30)</f>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>20180125</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>763</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>489896.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="33" spans="4:5">
+      <c r="D33">
+        <f>SUM(D3:D32)</f>
         <v>500029.82</v>
       </c>
-      <c r="E31">
-        <f>SUM(E3:E29)</f>
-        <v>9370.5</v>
+      <c r="E33">
+        <f>SUM(E3:E31)</f>
+        <v>10133.5</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,55 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云服务器3个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买核心板等物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抵扣</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +634,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -654,7 +703,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F28" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F30" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -880,7 +929,7 @@
         <v>177012.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>20171218</v>
       </c>
@@ -898,7 +947,7 @@
         <v>297012.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>20171220</v>
       </c>
@@ -916,7 +965,7 @@
         <v>397012.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>20171220</v>
       </c>
@@ -934,7 +983,7 @@
         <v>497012.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>20171221</v>
       </c>
@@ -952,7 +1001,7 @@
         <v>497042.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20180108</v>
       </c>
@@ -970,7 +1019,7 @@
         <v>496632.52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20180110</v>
       </c>
@@ -988,7 +1037,7 @@
         <v>493885.52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20180114</v>
       </c>
@@ -1006,7 +1055,7 @@
         <v>493757.32</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20180120</v>
       </c>
@@ -1024,7 +1073,7 @@
         <v>492907.32</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>20180120</v>
       </c>
@@ -1041,8 +1090,11 @@
         <f t="shared" si="0"/>
         <v>492263.32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>20180120</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v>491763.32</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>20180122</v>
       </c>
@@ -1078,7 +1130,7 @@
         <v>490659.32</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>20180125</v>
       </c>
@@ -1096,15 +1148,43 @@
         <v>489896.32</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>20180211</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>355.8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>489540.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>20180211</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30">
+        <v>946.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>488594.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1"/>
     <row r="33" spans="4:5">
       <c r="D33">
         <f>SUM(D3:D32)</f>
@@ -1112,7 +1192,7 @@
       </c>
       <c r="E33">
         <f>SUM(E3:E31)</f>
-        <v>10133.5</v>
+        <v>11435.8</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,14 @@
       </rPr>
       <t>抵扣</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票和元件及制版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -703,7 +711,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F30" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F31" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1184,15 +1192,37 @@
         <v>488594.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="33" spans="4:5">
-      <c r="D33">
-        <f>SUM(D3:D32)</f>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>20180318</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>2330</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>486264.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:5">
+      <c r="D35">
+        <f>SUM(D3:D34)</f>
         <v>500029.82</v>
       </c>
-      <c r="E33">
-        <f>SUM(E3:E31)</f>
-        <v>11435.8</v>
+      <c r="E35">
+        <f>SUM(E3:E33)</f>
+        <v>13765.8</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -711,7 +711,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F31" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F32" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1211,17 +1211,39 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="4:5" ht="12.75" customHeight="1"/>
-    <row r="35" spans="4:5">
-      <c r="D35">
-        <f>SUM(D3:D34)</f>
-        <v>500029.82</v>
-      </c>
-      <c r="E35">
-        <f>SUM(E3:E33)</f>
+      <c r="A32">
+        <v>20180321</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>486302.72000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1"/>
+    <row r="37" spans="2:5">
+      <c r="D37">
+        <f>SUM(D3:D36)</f>
+        <v>500068.52</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E3:E35)</f>
         <v>13765.8</v>
       </c>
     </row>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,22 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成来京路费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云服务器6个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买18650电池盒和电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -711,7 +727,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F32" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F35" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1228,23 +1244,77 @@
         <v>486302.72000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="37" spans="2:5">
-      <c r="D37">
-        <f>SUM(D3:D36)</f>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>20180416</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1159.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>485143.22000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>20180506</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>682.8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>484460.42000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>20180509</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35">
+        <v>69.7</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>484390.72000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:6">
+      <c r="D40">
+        <f>SUM(D3:D39)</f>
         <v>500068.52</v>
       </c>
-      <c r="E37">
-        <f>SUM(E3:E35)</f>
-        <v>13765.8</v>
+      <c r="E40">
+        <f>SUM(E3:E38)</f>
+        <v>15677.8</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>购买18650电池盒和电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成报销来京路费和器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,13 +666,13 @@
   <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
@@ -727,7 +735,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F36" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1299,8 +1307,22 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36">
+        <v>20180526</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>970</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>483420.72000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="1"/>
@@ -1314,7 +1336,7 @@
       </c>
       <c r="E40">
         <f>SUM(E3:E38)</f>
-        <v>15677.8</v>
+        <v>16647.8</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制版费和3D打印费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H40"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -735,7 +747,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F36" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F38" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1325,18 +1337,58 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1"/>
+      <c r="A37">
+        <v>20180607</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37">
+        <v>3390</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>480030.72000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>20180607</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38">
+        <v>456</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>479574.72000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
     <row r="40" spans="1:6">
-      <c r="D40">
-        <f>SUM(D3:D39)</f>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:6">
+      <c r="D43">
+        <f>SUM(D3:D42)</f>
         <v>500068.52</v>
       </c>
-      <c r="E40">
-        <f>SUM(E3:E38)</f>
-        <v>16647.8</v>
+      <c r="E43">
+        <f>SUM(E3:E41)</f>
+        <v>20493.8</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,22 @@
   </si>
   <si>
     <t>制版费和3D打印费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期部分利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成来京路费和打印费等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H43"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -747,7 +763,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F38" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F45" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1373,22 +1389,160 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39">
+        <v>20180621</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>25.15</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>479599.87000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1"/>
+      <c r="A40">
+        <v>20180624</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>387.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>479987.37000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20180625</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41">
+        <v>387.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>480374.87000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20180626</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>387.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>480762.37000000005</v>
+      </c>
+    </row>
     <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20180627</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D43">
-        <f>SUM(D3:D42)</f>
-        <v>500068.52</v>
-      </c>
-      <c r="E43">
-        <f>SUM(E3:E41)</f>
-        <v>20493.8</v>
+        <v>1937.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>482699.87000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20180628</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>387.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>483087.37000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20180701</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <v>1320.5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>481766.87000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" ht="12.75" customHeight="1"/>
+    <row r="53" spans="2:5">
+      <c r="D53">
+        <f>SUM(D3:D52)</f>
+        <v>503581.17000000004</v>
+      </c>
+      <c r="E53">
+        <f>SUM(E3:E51)</f>
+        <v>21814.3</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,30 @@
   </si>
   <si>
     <t>马成来京路费和打印费等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成来京路费和材料费等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成路费和传感器等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安买书费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安买下载器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -763,7 +787,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F45" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F49" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1515,34 +1539,90 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46">
+        <v>20180718</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>1290</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>480476.87000000005</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47">
+        <v>20180721</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>1509.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>478967.37000000005</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="A48">
+        <v>20180721</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>266.92</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>478700.45000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20180721</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>478658.45000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:5" ht="12.75" customHeight="1"/>
-    <row r="53" spans="2:5">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:6">
       <c r="D53">
         <f>SUM(D3:D52)</f>
         <v>503581.17000000004</v>
       </c>
       <c r="E53">
         <f>SUM(E3:E51)</f>
-        <v>21814.3</v>
+        <v>24922.719999999998</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流2018.xlsx
+++ b/微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,14 @@
   </si>
   <si>
     <t>卢安买下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种材料费和路费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -787,7 +795,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F49" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F50" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1611,18 +1619,44 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1"/>
+      <c r="A50">
+        <v>20180804</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>2210</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>476448.45000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
     <row r="53" spans="1:6">
-      <c r="D53">
-        <f>SUM(D3:D52)</f>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:6">
+      <c r="D56">
+        <f>SUM(D3:D55)</f>
         <v>503581.17000000004</v>
       </c>
-      <c r="E53">
-        <f>SUM(E3:E51)</f>
-        <v>24922.719999999998</v>
+      <c r="E56">
+        <f>SUM(E3:E54)</f>
+        <v>27132.719999999998</v>
       </c>
     </row>
   </sheetData>
